--- a/probability/Fe/2His_1Glu/threshold.xlsx
+++ b/probability/Fe/2His_1Glu/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Glu\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5232F-8EF6-4A69-9074-EC1A6346B34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33BF54-61E0-49FE-B3BB-ADC8FAEF095A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C3" s="2">
         <v>6.1</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
